--- a/stationarity_test/KLDivergenceTest/FeedbackLog/p15-faa-0ms.xlsx
+++ b/stationarity_test/KLDivergenceTest/FeedbackLog/p15-faa-0ms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanadsaha92/Desktop/Research_Experiments/imMens-Interactions/stationarity_test/KLDivergenceTest/FeedbackLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3B04FC-2C26-E149-8565-E21B6B37FD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F3F1E2-5C22-F345-BF3F-D86ACF96A14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="176">
   <si>
     <t>proposition</t>
   </si>
@@ -10683,10 +10683,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:G996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10727,7 +10727,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -10796,7 +10796,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -10819,7 +10819,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -10842,7 +10842,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -10888,7 +10888,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>170</v>
@@ -10911,7 +10911,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -10934,7 +10934,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -10957,7 +10957,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -10980,7 +10980,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -11003,7 +11003,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -11026,7 +11026,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -11072,7 +11072,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>170</v>
@@ -11092,22 +11092,22 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <v>4.386574074074074E-3</v>
+        <v>4.4907407407407405E-3</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -11115,22 +11115,22 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <v>4.4444444444444444E-3</v>
+        <v>5.4513888888888893E-3</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -11138,22 +11138,22 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" s="4">
-        <v>4.4907407407407405E-3</v>
+        <v>5.5208333333333333E-3</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -11161,68 +11161,68 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4">
-        <v>5.4513888888888893E-3</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="G21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4">
-        <v>5.5208333333333333E-3</v>
+        <v>6.4467592592592588E-3</v>
       </c>
       <c r="G22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
       </c>
       <c r="F23" s="4">
-        <v>6.2500000000000003E-3</v>
+        <v>6.4930555555555557E-3</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
@@ -11230,10 +11230,10 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -11245,7 +11245,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="4">
-        <v>6.4467592592592588E-3</v>
+        <v>6.5509259259259262E-3</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
@@ -11253,10 +11253,10 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -11268,7 +11268,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="4">
-        <v>6.4930555555555557E-3</v>
+        <v>6.6319444444444446E-3</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
@@ -11276,22 +11276,22 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
       <c r="F26" s="4">
-        <v>6.5509259259259262E-3</v>
+        <v>6.7129629629629631E-3</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
@@ -11299,10 +11299,10 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -11314,7 +11314,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="4">
-        <v>6.6319444444444446E-3</v>
+        <v>6.8171296296296296E-3</v>
       </c>
       <c r="G27" s="2">
         <v>2</v>
@@ -11322,7 +11322,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -11337,7 +11337,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="4">
-        <v>6.7129629629629631E-3</v>
+        <v>6.9097222222222225E-3</v>
       </c>
       <c r="G28" s="2">
         <v>2</v>
@@ -11345,10 +11345,10 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -11360,7 +11360,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="4">
-        <v>6.8171296296296296E-3</v>
+        <v>6.9675925925925929E-3</v>
       </c>
       <c r="G29" s="2">
         <v>2</v>
@@ -11368,22 +11368,22 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
       <c r="F30" s="4">
-        <v>6.9097222222222225E-3</v>
+        <v>7.013888888888889E-3</v>
       </c>
       <c r="G30" s="2">
         <v>2</v>
@@ -11391,45 +11391,43 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
       <c r="F31" s="4">
-        <v>6.9675925925925929E-3</v>
-      </c>
-      <c r="G31" s="2">
-        <v>2</v>
-      </c>
+        <v>7.0717592592592594E-3</v>
+      </c>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
       </c>
       <c r="F32" s="4">
-        <v>7.013888888888889E-3</v>
+        <v>7.1527777777777779E-3</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
@@ -11437,31 +11435,33 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
       </c>
       <c r="F33" s="4">
-        <v>7.0717592592592594E-3</v>
-      </c>
-      <c r="G33" s="3"/>
+        <v>7.3379629629629628E-3</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -11473,7 +11473,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="4">
-        <v>7.1527777777777779E-3</v>
+        <v>7.4537037037037037E-3</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
@@ -11481,10 +11481,10 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
@@ -11496,7 +11496,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="4">
-        <v>7.3379629629629628E-3</v>
+        <v>7.4884259259259262E-3</v>
       </c>
       <c r="G35" s="2">
         <v>2</v>
@@ -11504,7 +11504,7 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -11519,18 +11519,18 @@
         <v>2</v>
       </c>
       <c r="F36" s="4">
-        <v>7.4537037037037037E-3</v>
+        <v>8.1365740740740738E-3</v>
       </c>
       <c r="G36" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -11542,30 +11542,30 @@
         <v>2</v>
       </c>
       <c r="F37" s="4">
-        <v>7.4884259259259262E-3</v>
+        <v>8.2291666666666659E-3</v>
       </c>
       <c r="G37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="4">
-        <v>8.1365740740740738E-3</v>
+        <v>8.2870370370370372E-3</v>
       </c>
       <c r="G38" s="2">
         <v>3</v>
@@ -11573,10 +11573,10 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -11588,7 +11588,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="4">
-        <v>8.2291666666666659E-3</v>
+        <v>8.3680555555555557E-3</v>
       </c>
       <c r="G39" s="2">
         <v>3</v>
@@ -11596,10 +11596,10 @@
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B40" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -11611,7 +11611,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="4">
-        <v>8.2870370370370372E-3</v>
+        <v>8.4143518518518517E-3</v>
       </c>
       <c r="G40" s="2">
         <v>3</v>
@@ -11619,10 +11619,10 @@
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -11634,7 +11634,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="4">
-        <v>8.3680555555555557E-3</v>
+        <v>8.4490740740740741E-3</v>
       </c>
       <c r="G41" s="2">
         <v>3</v>
@@ -11642,10 +11642,10 @@
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -11657,7 +11657,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="4">
-        <v>8.4143518518518517E-3</v>
+        <v>8.5069444444444437E-3</v>
       </c>
       <c r="G42" s="2">
         <v>3</v>
@@ -11665,22 +11665,22 @@
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="4">
-        <v>8.4490740740740741E-3</v>
+        <v>8.6458333333333335E-3</v>
       </c>
       <c r="G43" s="2">
         <v>3</v>
@@ -11688,22 +11688,22 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B44" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E44" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" s="4">
-        <v>8.5069444444444437E-3</v>
+        <v>9.1203703703703707E-3</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
@@ -11711,22 +11711,22 @@
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="4">
-        <v>8.6458333333333335E-3</v>
+        <v>9.1898148148148156E-3</v>
       </c>
       <c r="G45" s="2">
         <v>3</v>
@@ -11734,13 +11734,13 @@
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>20</v>
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="4">
-        <v>9.1203703703703707E-3</v>
+        <v>9.2245370370370363E-3</v>
       </c>
       <c r="G46" s="2">
         <v>3</v>
@@ -11757,22 +11757,22 @@
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="4">
-        <v>9.1898148148148156E-3</v>
+        <v>9.2824074074074076E-3</v>
       </c>
       <c r="G47" s="2">
         <v>3</v>
@@ -11780,22 +11780,22 @@
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" s="4">
-        <v>9.2245370370370363E-3</v>
+        <v>9.3634259259259261E-3</v>
       </c>
       <c r="G48" s="2">
         <v>3</v>
@@ -11803,10 +11803,10 @@
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>170</v>
@@ -11818,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="4">
-        <v>9.2824074074074076E-3</v>
+        <v>9.4560185185185181E-3</v>
       </c>
       <c r="G49" s="2">
         <v>3</v>
@@ -11826,10 +11826,10 @@
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -11841,7 +11841,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="4">
-        <v>9.3634259259259261E-3</v>
+        <v>9.7106481481481488E-3</v>
       </c>
       <c r="G50" s="2">
         <v>3</v>
@@ -11849,22 +11849,22 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" s="4">
-        <v>9.4560185185185181E-3</v>
+        <v>9.7685185185185184E-3</v>
       </c>
       <c r="G51" s="2">
         <v>3</v>
@@ -11872,10 +11872,10 @@
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B52" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
@@ -11887,7 +11887,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="4">
-        <v>9.7106481481481488E-3</v>
+        <v>9.8495370370370369E-3</v>
       </c>
       <c r="G52" s="2">
         <v>3</v>
@@ -11895,10 +11895,10 @@
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
@@ -11910,7 +11910,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="4">
-        <v>9.7685185185185184E-3</v>
+        <v>9.9074074074074082E-3</v>
       </c>
       <c r="G53" s="2">
         <v>3</v>
@@ -11918,10 +11918,10 @@
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B54" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
@@ -11933,7 +11933,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="4">
-        <v>9.8495370370370369E-3</v>
+        <v>9.9884259259259266E-3</v>
       </c>
       <c r="G54" s="2">
         <v>3</v>
@@ -11941,22 +11941,22 @@
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B55" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" s="4">
-        <v>9.9074074074074082E-3</v>
+        <v>1.0023148148148147E-2</v>
       </c>
       <c r="G55" s="2">
         <v>3</v>
@@ -11964,10 +11964,10 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B56" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -11979,7 +11979,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="4">
-        <v>9.9884259259259266E-3</v>
+        <v>1.0092592592592592E-2</v>
       </c>
       <c r="G56" s="2">
         <v>3</v>
@@ -11987,22 +11987,22 @@
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
       </c>
       <c r="F57" s="4">
-        <v>1.0023148148148147E-2</v>
+        <v>1.0185185185185186E-2</v>
       </c>
       <c r="G57" s="2">
         <v>3</v>
@@ -12010,10 +12010,10 @@
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
@@ -12025,7 +12025,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="4">
-        <v>1.0092592592592592E-2</v>
+        <v>1.0208333333333333E-2</v>
       </c>
       <c r="G58" s="2">
         <v>3</v>
@@ -12033,10 +12033,10 @@
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
@@ -12048,7 +12048,7 @@
         <v>2</v>
       </c>
       <c r="F59" s="4">
-        <v>1.0185185185185186E-2</v>
+        <v>1.0231481481481482E-2</v>
       </c>
       <c r="G59" s="2">
         <v>3</v>
@@ -12056,10 +12056,10 @@
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
@@ -12071,7 +12071,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="4">
-        <v>1.0208333333333333E-2</v>
+        <v>1.0335648148148148E-2</v>
       </c>
       <c r="G60" s="2">
         <v>3</v>
@@ -12079,10 +12079,10 @@
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B61" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
@@ -12094,7 +12094,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="4">
-        <v>1.0231481481481482E-2</v>
+        <v>1.0405092592592593E-2</v>
       </c>
       <c r="G61" s="2">
         <v>3</v>
@@ -12102,10 +12102,10 @@
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B62" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
@@ -12117,7 +12117,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="4">
-        <v>1.0335648148148148E-2</v>
+        <v>1.0474537037037037E-2</v>
       </c>
       <c r="G62" s="2">
         <v>3</v>
@@ -12125,10 +12125,10 @@
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B63" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
@@ -12140,7 +12140,7 @@
         <v>2</v>
       </c>
       <c r="F63" s="4">
-        <v>1.0405092592592593E-2</v>
+        <v>1.0543981481481482E-2</v>
       </c>
       <c r="G63" s="2">
         <v>3</v>
@@ -12148,10 +12148,10 @@
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
@@ -12163,7 +12163,7 @@
         <v>2</v>
       </c>
       <c r="F64" s="4">
-        <v>1.0474537037037037E-2</v>
+        <v>1.0648148148148148E-2</v>
       </c>
       <c r="G64" s="2">
         <v>3</v>
@@ -12171,10 +12171,10 @@
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
@@ -12186,7 +12186,7 @@
         <v>2</v>
       </c>
       <c r="F65" s="4">
-        <v>1.0543981481481482E-2</v>
+        <v>1.0694444444444444E-2</v>
       </c>
       <c r="G65" s="2">
         <v>3</v>
@@ -12194,10 +12194,10 @@
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
@@ -12209,7 +12209,7 @@
         <v>2</v>
       </c>
       <c r="F66" s="4">
-        <v>1.0648148148148148E-2</v>
+        <v>1.0717592592592593E-2</v>
       </c>
       <c r="G66" s="2">
         <v>3</v>
@@ -12217,10 +12217,10 @@
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
@@ -12232,7 +12232,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="4">
-        <v>1.0694444444444444E-2</v>
+        <v>1.0752314814814815E-2</v>
       </c>
       <c r="G67" s="2">
         <v>3</v>
@@ -12240,22 +12240,22 @@
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E68" s="1">
         <v>2</v>
       </c>
       <c r="F68" s="4">
-        <v>1.0717592592592593E-2</v>
+        <v>1.0775462962962962E-2</v>
       </c>
       <c r="G68" s="2">
         <v>3</v>
@@ -12263,10 +12263,10 @@
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
@@ -12278,7 +12278,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="4">
-        <v>1.0752314814814815E-2</v>
+        <v>1.0821759259259258E-2</v>
       </c>
       <c r="G69" s="2">
         <v>3</v>
@@ -12286,22 +12286,22 @@
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
       </c>
       <c r="F70" s="4">
-        <v>1.0775462962962962E-2</v>
+        <v>1.0914351851851852E-2</v>
       </c>
       <c r="G70" s="2">
         <v>3</v>
@@ -12309,10 +12309,10 @@
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>8</v>
@@ -12324,7 +12324,7 @@
         <v>2</v>
       </c>
       <c r="F71" s="4">
-        <v>1.0821759259259258E-2</v>
+        <v>1.0983796296296297E-2</v>
       </c>
       <c r="G71" s="2">
         <v>3</v>
@@ -12332,10 +12332,10 @@
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
@@ -12347,7 +12347,7 @@
         <v>2</v>
       </c>
       <c r="F72" s="4">
-        <v>1.0914351851851852E-2</v>
+        <v>1.1064814814814816E-2</v>
       </c>
       <c r="G72" s="2">
         <v>3</v>
@@ -12355,10 +12355,10 @@
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>8</v>
@@ -12370,7 +12370,7 @@
         <v>2</v>
       </c>
       <c r="F73" s="4">
-        <v>1.0983796296296297E-2</v>
+        <v>1.1099537037037036E-2</v>
       </c>
       <c r="G73" s="2">
         <v>3</v>
@@ -12378,10 +12378,10 @@
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>8</v>
@@ -12393,7 +12393,7 @@
         <v>2</v>
       </c>
       <c r="F74" s="4">
-        <v>1.1064814814814816E-2</v>
+        <v>1.1203703703703704E-2</v>
       </c>
       <c r="G74" s="2">
         <v>3</v>
@@ -12401,10 +12401,10 @@
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
@@ -12416,7 +12416,7 @@
         <v>2</v>
       </c>
       <c r="F75" s="4">
-        <v>1.1099537037037036E-2</v>
+        <v>1.1261574074074075E-2</v>
       </c>
       <c r="G75" s="2">
         <v>3</v>
@@ -12424,10 +12424,10 @@
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
@@ -12439,7 +12439,7 @@
         <v>2</v>
       </c>
       <c r="F76" s="4">
-        <v>1.1203703703703704E-2</v>
+        <v>1.1307870370370371E-2</v>
       </c>
       <c r="G76" s="2">
         <v>3</v>
@@ -12447,10 +12447,10 @@
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>8</v>
@@ -12462,7 +12462,7 @@
         <v>2</v>
       </c>
       <c r="F77" s="4">
-        <v>1.1261574074074075E-2</v>
+        <v>1.1446759259259259E-2</v>
       </c>
       <c r="G77" s="2">
         <v>3</v>
@@ -12470,10 +12470,10 @@
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>8</v>
@@ -12485,7 +12485,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="4">
-        <v>1.1307870370370371E-2</v>
+        <v>1.1608796296296296E-2</v>
       </c>
       <c r="G78" s="2">
         <v>3</v>
@@ -12493,10 +12493,10 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>8</v>
@@ -12508,7 +12508,7 @@
         <v>2</v>
       </c>
       <c r="F79" s="4">
-        <v>1.1446759259259259E-2</v>
+        <v>1.1655092592592592E-2</v>
       </c>
       <c r="G79" s="2">
         <v>3</v>
@@ -12516,10 +12516,10 @@
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>8</v>
@@ -12531,7 +12531,7 @@
         <v>2</v>
       </c>
       <c r="F80" s="4">
-        <v>1.1608796296296296E-2</v>
+        <v>1.1712962962962963E-2</v>
       </c>
       <c r="G80" s="2">
         <v>3</v>
@@ -12539,10 +12539,10 @@
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B81" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>8</v>
@@ -12554,7 +12554,7 @@
         <v>2</v>
       </c>
       <c r="F81" s="4">
-        <v>1.1655092592592592E-2</v>
+        <v>1.1828703703703704E-2</v>
       </c>
       <c r="G81" s="2">
         <v>3</v>
@@ -12562,10 +12562,10 @@
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B82" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>8</v>
@@ -12577,7 +12577,7 @@
         <v>2</v>
       </c>
       <c r="F82" s="4">
-        <v>1.1712962962962963E-2</v>
+        <v>1.1875E-2</v>
       </c>
       <c r="G82" s="2">
         <v>3</v>
@@ -12585,33 +12585,33 @@
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E83" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F83" s="4">
-        <v>1.1828703703703704E-2</v>
+        <v>1.2673611111111111E-2</v>
       </c>
       <c r="G83" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B84" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>8</v>
@@ -12623,30 +12623,30 @@
         <v>2</v>
       </c>
       <c r="F84" s="4">
-        <v>1.1875E-2</v>
+        <v>1.2743055555555556E-2</v>
       </c>
       <c r="G84" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E85" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85" s="4">
-        <v>1.2673611111111111E-2</v>
+        <v>1.2893518518518518E-2</v>
       </c>
       <c r="G85" s="2">
         <v>4</v>
@@ -12654,10 +12654,10 @@
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B86" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>8</v>
@@ -12669,7 +12669,7 @@
         <v>2</v>
       </c>
       <c r="F86" s="4">
-        <v>1.2743055555555556E-2</v>
+        <v>1.2986111111111111E-2</v>
       </c>
       <c r="G86" s="2">
         <v>4</v>
@@ -12677,10 +12677,10 @@
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B87" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
@@ -12692,7 +12692,7 @@
         <v>2</v>
       </c>
       <c r="F87" s="4">
-        <v>1.2893518518518518E-2</v>
+        <v>1.3125E-2</v>
       </c>
       <c r="G87" s="2">
         <v>4</v>
@@ -12700,10 +12700,10 @@
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B88" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
@@ -12715,7 +12715,7 @@
         <v>2</v>
       </c>
       <c r="F88" s="4">
-        <v>1.2986111111111111E-2</v>
+        <v>1.3368055555555555E-2</v>
       </c>
       <c r="G88" s="2">
         <v>4</v>
@@ -12723,10 +12723,10 @@
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B89" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>8</v>
@@ -12738,7 +12738,7 @@
         <v>2</v>
       </c>
       <c r="F89" s="4">
-        <v>1.3125E-2</v>
+        <v>1.3425925925925926E-2</v>
       </c>
       <c r="G89" s="2">
         <v>4</v>
@@ -12746,22 +12746,22 @@
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B90" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E90" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F90" s="4">
-        <v>1.3368055555555555E-2</v>
+        <v>1.3472222222222222E-2</v>
       </c>
       <c r="G90" s="2">
         <v>4</v>
@@ -12769,22 +12769,22 @@
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B91" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E91" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F91" s="4">
-        <v>1.3425925925925926E-2</v>
+        <v>1.3518518518518518E-2</v>
       </c>
       <c r="G91" s="2">
         <v>4</v>
@@ -12792,10 +12792,10 @@
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>170</v>
@@ -12807,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="4">
-        <v>1.3472222222222222E-2</v>
+        <v>1.3634259259259259E-2</v>
       </c>
       <c r="G92" s="2">
         <v>4</v>
@@ -12815,22 +12815,22 @@
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B93" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E93" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F93" s="4">
-        <v>1.3518518518518518E-2</v>
+        <v>1.3773148148148149E-2</v>
       </c>
       <c r="G93" s="2">
         <v>4</v>
@@ -12838,22 +12838,22 @@
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B94" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" s="4">
-        <v>1.3634259259259259E-2</v>
+        <v>1.3877314814814815E-2</v>
       </c>
       <c r="G94" s="2">
         <v>4</v>
@@ -12861,10 +12861,10 @@
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>8</v>
@@ -12876,7 +12876,7 @@
         <v>2</v>
       </c>
       <c r="F95" s="4">
-        <v>1.3773148148148149E-2</v>
+        <v>1.3935185185185186E-2</v>
       </c>
       <c r="G95" s="2">
         <v>4</v>
@@ -12884,10 +12884,10 @@
     </row>
     <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B96" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>8</v>
@@ -12899,7 +12899,7 @@
         <v>2</v>
       </c>
       <c r="F96" s="4">
-        <v>1.3877314814814815E-2</v>
+        <v>1.4027777777777778E-2</v>
       </c>
       <c r="G96" s="2">
         <v>4</v>
@@ -12907,22 +12907,22 @@
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B97" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E97" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F97" s="4">
-        <v>1.3935185185185186E-2</v>
+        <v>1.4085648148148147E-2</v>
       </c>
       <c r="G97" s="2">
         <v>4</v>
@@ -12930,68 +12930,68 @@
     </row>
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E98" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F98" s="4">
-        <v>1.4027777777777778E-2</v>
+        <v>1.4386574074074074E-2</v>
       </c>
       <c r="G98" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B99" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F99" s="4">
-        <v>1.4085648148148147E-2</v>
+        <v>1.5370370370370371E-2</v>
       </c>
       <c r="G99" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B100" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F100" s="4">
-        <v>1.4386574074074074E-2</v>
+        <v>1.5578703703703704E-2</v>
       </c>
       <c r="G100" s="2">
         <v>5</v>
@@ -12999,10 +12999,10 @@
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B101" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>8</v>
@@ -13014,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="F101" s="4">
-        <v>1.5370370370370371E-2</v>
+        <v>1.576388888888889E-2</v>
       </c>
       <c r="G101" s="2">
         <v>5</v>
@@ -13022,10 +13022,10 @@
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B102" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>8</v>
@@ -13037,7 +13037,7 @@
         <v>2</v>
       </c>
       <c r="F102" s="4">
-        <v>1.5578703703703704E-2</v>
+        <v>1.5891203703703703E-2</v>
       </c>
       <c r="G102" s="2">
         <v>5</v>
@@ -13045,10 +13045,10 @@
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B103" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>8</v>
@@ -13060,7 +13060,7 @@
         <v>2</v>
       </c>
       <c r="F103" s="4">
-        <v>1.576388888888889E-2</v>
+        <v>1.6064814814814816E-2</v>
       </c>
       <c r="G103" s="2">
         <v>5</v>
@@ -13068,22 +13068,22 @@
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B104" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E104" s="1">
         <v>2</v>
       </c>
       <c r="F104" s="4">
-        <v>1.5891203703703703E-2</v>
+        <v>1.6423611111111111E-2</v>
       </c>
       <c r="G104" s="2">
         <v>5</v>
@@ -13091,10 +13091,10 @@
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B105" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>8</v>
@@ -13106,7 +13106,7 @@
         <v>2</v>
       </c>
       <c r="F105" s="4">
-        <v>1.6064814814814816E-2</v>
+        <v>1.6469907407407409E-2</v>
       </c>
       <c r="G105" s="2">
         <v>5</v>
@@ -13114,22 +13114,22 @@
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B106" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E106" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F106" s="4">
-        <v>1.6192129629629629E-2</v>
+        <v>1.6655092592592593E-2</v>
       </c>
       <c r="G106" s="2">
         <v>5</v>
@@ -13137,22 +13137,22 @@
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E107" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F107" s="4">
-        <v>1.6423611111111111E-2</v>
+        <v>1.667824074074074E-2</v>
       </c>
       <c r="G107" s="2">
         <v>5</v>
@@ -13160,22 +13160,22 @@
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E108" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F108" s="4">
-        <v>1.6469907407407409E-2</v>
+        <v>1.6840277777777777E-2</v>
       </c>
       <c r="G108" s="2">
         <v>5</v>
@@ -13183,10 +13183,10 @@
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B109" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
@@ -13198,7 +13198,7 @@
         <v>2</v>
       </c>
       <c r="F109" s="4">
-        <v>1.6655092592592593E-2</v>
+        <v>1.6875000000000001E-2</v>
       </c>
       <c r="G109" s="2">
         <v>5</v>
@@ -13206,22 +13206,22 @@
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B110" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E110" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F110" s="4">
-        <v>1.667824074074074E-2</v>
+        <v>1.6967592592592593E-2</v>
       </c>
       <c r="G110" s="2">
         <v>5</v>
@@ -13229,22 +13229,22 @@
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B111" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E111" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F111" s="4">
-        <v>1.6840277777777777E-2</v>
+        <v>1.7002314814814814E-2</v>
       </c>
       <c r="G111" s="2">
         <v>5</v>
@@ -13252,22 +13252,22 @@
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B112" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E112" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F112" s="4">
-        <v>1.6875000000000001E-2</v>
+        <v>1.7071759259259259E-2</v>
       </c>
       <c r="G112" s="2">
         <v>5</v>
@@ -13275,22 +13275,22 @@
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B113" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E113" s="1">
         <v>2</v>
       </c>
       <c r="F113" s="4">
-        <v>1.6967592592592593E-2</v>
+        <v>1.7256944444444443E-2</v>
       </c>
       <c r="G113" s="2">
         <v>5</v>
@@ -13298,91 +13298,91 @@
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E114" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F114" s="4">
-        <v>1.7002314814814814E-2</v>
+        <v>1.7835648148148149E-2</v>
       </c>
       <c r="G114" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E115" s="1">
         <v>0</v>
       </c>
       <c r="F115" s="4">
-        <v>1.7071759259259259E-2</v>
+        <v>1.8229166666666668E-2</v>
       </c>
       <c r="G115" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B116" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E116" s="1">
         <v>2</v>
       </c>
       <c r="F116" s="4">
-        <v>1.7256944444444443E-2</v>
+        <v>1.8807870370370371E-2</v>
       </c>
       <c r="G116" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B117" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E117" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F117" s="4">
-        <v>1.7835648148148149E-2</v>
+        <v>1.8912037037037036E-2</v>
       </c>
       <c r="G117" s="2">
         <v>6</v>
@@ -13390,22 +13390,22 @@
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B118" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E118" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F118" s="4">
-        <v>1.8229166666666668E-2</v>
+        <v>1.8993055555555555E-2</v>
       </c>
       <c r="G118" s="2">
         <v>6</v>
@@ -13413,10 +13413,10 @@
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
@@ -13425,10 +13425,10 @@
         <v>9</v>
       </c>
       <c r="E119" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119" s="4">
-        <v>1.8807870370370371E-2</v>
+        <v>1.9432870370370371E-2</v>
       </c>
       <c r="G119" s="2">
         <v>6</v>
@@ -13436,10 +13436,10 @@
     </row>
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>8</v>
@@ -13451,7 +13451,7 @@
         <v>2</v>
       </c>
       <c r="F120" s="4">
-        <v>1.8912037037037036E-2</v>
+        <v>1.951388888888889E-2</v>
       </c>
       <c r="G120" s="2">
         <v>6</v>
@@ -13459,10 +13459,10 @@
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>8</v>
@@ -13474,7 +13474,7 @@
         <v>2</v>
       </c>
       <c r="F121" s="4">
-        <v>1.8993055555555555E-2</v>
+        <v>1.9629629629629629E-2</v>
       </c>
       <c r="G121" s="2">
         <v>6</v>
@@ -13482,10 +13482,10 @@
     </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B122" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>8</v>
@@ -13494,10 +13494,10 @@
         <v>9</v>
       </c>
       <c r="E122" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F122" s="4">
-        <v>1.9432870370370371E-2</v>
+        <v>1.9675925925925927E-2</v>
       </c>
       <c r="G122" s="2">
         <v>6</v>
@@ -13505,10 +13505,10 @@
     </row>
     <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B123" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>8</v>
@@ -13520,7 +13520,7 @@
         <v>2</v>
       </c>
       <c r="F123" s="4">
-        <v>1.951388888888889E-2</v>
+        <v>2.0520833333333332E-2</v>
       </c>
       <c r="G123" s="2">
         <v>6</v>
@@ -13528,10 +13528,10 @@
     </row>
     <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B124" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>8</v>
@@ -13543,7 +13543,7 @@
         <v>2</v>
       </c>
       <c r="F124" s="4">
-        <v>1.9629629629629629E-2</v>
+        <v>2.0717592592592593E-2</v>
       </c>
       <c r="G124" s="2">
         <v>6</v>
@@ -13551,10 +13551,10 @@
     </row>
     <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B125" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>8</v>
@@ -13566,7 +13566,7 @@
         <v>2</v>
       </c>
       <c r="F125" s="4">
-        <v>1.9675925925925927E-2</v>
+        <v>2.0937500000000001E-2</v>
       </c>
       <c r="G125" s="2">
         <v>6</v>
@@ -13574,22 +13574,22 @@
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B126" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E126" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F126" s="4">
-        <v>2.0393518518518519E-2</v>
+        <v>2.1076388888888888E-2</v>
       </c>
       <c r="G126" s="2">
         <v>6</v>
@@ -13597,10 +13597,10 @@
     </row>
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B127" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
@@ -13612,7 +13612,7 @@
         <v>2</v>
       </c>
       <c r="F127" s="4">
-        <v>2.0520833333333332E-2</v>
+        <v>2.1377314814814814E-2</v>
       </c>
       <c r="G127" s="2">
         <v>6</v>
@@ -13620,10 +13620,10 @@
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B128" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>8</v>
@@ -13635,7 +13635,7 @@
         <v>2</v>
       </c>
       <c r="F128" s="4">
-        <v>2.0717592592592593E-2</v>
+        <v>2.1643518518518517E-2</v>
       </c>
       <c r="G128" s="2">
         <v>6</v>
@@ -13643,10 +13643,10 @@
     </row>
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B129" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>8</v>
@@ -13658,7 +13658,7 @@
         <v>2</v>
       </c>
       <c r="F129" s="4">
-        <v>2.0937500000000001E-2</v>
+        <v>2.1759259259259259E-2</v>
       </c>
       <c r="G129" s="2">
         <v>6</v>
@@ -13666,22 +13666,22 @@
     </row>
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B130" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E130" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F130" s="4">
-        <v>2.1076388888888888E-2</v>
+        <v>2.2083333333333333E-2</v>
       </c>
       <c r="G130" s="2">
         <v>6</v>
@@ -13689,10 +13689,10 @@
     </row>
     <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
@@ -13701,107 +13701,19 @@
         <v>9</v>
       </c>
       <c r="E131" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131" s="4">
-        <v>2.1377314814814814E-2</v>
+        <v>2.2210648148148149E-2</v>
       </c>
       <c r="G131" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B132" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="1">
-        <v>2</v>
-      </c>
-      <c r="F132" s="4">
-        <v>2.1643518518518517E-2</v>
-      </c>
-      <c r="G132" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B133" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" s="1">
-        <v>2</v>
-      </c>
-      <c r="F133" s="4">
-        <v>2.1759259259259259E-2</v>
-      </c>
-      <c r="G133" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B134" s="1">
-        <v>0</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E134" s="1">
-        <v>0</v>
-      </c>
-      <c r="F134" s="4">
-        <v>2.2083333333333333E-2</v>
-      </c>
-      <c r="G134" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B135" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="1">
-        <v>1</v>
-      </c>
-      <c r="F135" s="4">
-        <v>2.2210648148148149E-2</v>
-      </c>
-      <c r="G135" s="2">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14663,10 +14575,6 @@
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
